--- a/medicine/Enfance/La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette/La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette.xlsx
+++ b/medicine/Enfance/La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette/La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Satanormal%C3%A9ficassassinfernale_Potion_du_professeur_Laboulette</t>
+          <t>La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Satanormaléficassassinfernale Potion du professeur Laboulette (titre original : Der satanarchäolügenialkohöllische Wunschpunsch) est un roman pour la jeunesse écrit par Michael Ende et publié en 1989. Le livre a été récompensé en 1990 par le prix littéraire suisse La vache qui lit.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Satanormal%C3%A9ficassassinfernale_Potion_du_professeur_Laboulette</t>
+          <t>La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méchant sorcier Laboulette (Beelzebub Irrwitzer) a une obligation auprès de Satan, chaque année il doit commettre un certain nombre de mauvaises actions, catastrophes naturelles, et autres malheurs. Cependant cette année il ne répond pas aux exigences attendues car Maurizio, le chat obèse de Laboulette est en fait un espion envoyé par le Haut Conseil des Animaux pour surveiller son maître, ce qui l'oblige à être prudent.
 Le dernier jour de l'année, Laboulette reçoit une visite de Maledictus Made, un huissier des enfers qui lui rappelle la teneur de son contrat avec le Diable qui stipule que son âme sera le prix à payer s'il ne provoque pas une catastrophe avant minuit. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Satanormal%C3%A9ficassassinfernale_Potion_du_professeur_Laboulette</t>
+          <t>La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Titre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre original satanarchäolügenialkohöllisch est un mot-valise formé des mots allemands Satan, Anarchie, Archäologie, Lüge, genial, Alkohol and höllisch (Satan, anarchie, archéologie, mensonge, génial, alcool et enfer). Certains mots revêtent ici une importance particulière dans l'histoire. Le fait que la potion est alcoolisée, a pour conséquence que le sorcier et la sorcière ne réalisent pas que l'effet désiré de renversement de la potion ne fonctionne pas. L'inversion en elle-même est associée au mot mensonge.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Satanormal%C3%A9ficassassinfernale_Potion_du_professeur_Laboulette</t>
+          <t>La_Satanormaléficassassinfernale_Potion_du_professeur_Laboulette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 2000, une série télévisée d'animation franco-canadienne inspirée de l'ouvrage : Wounchpounch.</t>
         </is>
